--- a/ОписаниеИзменений/Описание изменений по форме/0017 Заявки на оплату. Учет лимитов по договорам, наличия оригиналов договора, документов. .xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0017 Заявки на оплату. Учет лимитов по договорам, наличия оригиналов договора, документов. .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1850B-B6AC-4ABA-AAC4-17EC7CFFB5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048088B7-448C-49B6-939A-7A3819BE68AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -252,18 +252,6 @@
     <t>Добавлены новые предопределенные элементы: ОплатаТруда - тип данных "СправочникСсылка.СтатьиДвиженияДенежныхСредств"
 			ОплатаПоставщику - тип данных "СправочникСсылка.СтатьиДвиженияДенежныхСредств"
 			ПрочиеРасходы - тип данных "СправочникСсылка.СтатьиДвиженияДенежныхСредств"</t>
-  </si>
-  <si>
-    <t>Роль игсЧтениеРеестрыНаОплату</t>
-  </si>
-  <si>
-    <t>Создана новая роль на чтение для объекта игсРеестрыНаОплату</t>
-  </si>
-  <si>
-    <t>Роль игсИзменениеРеестрыНаОплату</t>
-  </si>
-  <si>
-    <t>Создана новая роль на изменение для объекта игсРеестрыНаОплату</t>
   </si>
   <si>
     <t>Документ игсРеестрыНаОплату</t>
@@ -685,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,237 +881,219 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
+      <c r="A28" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
         <v>49</v>
       </c>
     </row>
